--- a/Data/Transitions/19581969Translation.xlsx
+++ b/Data/Transitions/19581969Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="657">
   <si>
     <t>id</t>
   </si>
@@ -442,7 +442,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -634,7 +634,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1715,9 +1715,6 @@
   </si>
   <si>
     <t>{235.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -3899,7 +3896,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>567</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3910,7 +3907,7 @@
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3921,7 +3918,7 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3976,7 +3973,7 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4108,7 +4105,7 @@
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4119,7 +4116,7 @@
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4152,7 +4149,7 @@
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4163,7 +4160,7 @@
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4207,7 +4204,7 @@
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4295,7 +4292,7 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4306,7 +4303,7 @@
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4328,7 +4325,7 @@
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4405,7 +4402,7 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4416,7 +4413,7 @@
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4438,7 +4435,7 @@
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4460,7 +4457,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4482,7 +4479,7 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4603,7 +4600,7 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>567</v>
+        <v>206</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4658,7 +4655,7 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4680,7 +4677,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4735,7 +4732,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4801,7 +4798,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4856,7 +4853,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4955,7 +4952,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5021,7 +5018,7 @@
         <v>244</v>
       </c>
       <c r="C243" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5065,7 +5062,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5087,7 +5084,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5098,7 +5095,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5252,7 +5249,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5296,7 +5293,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5307,7 +5304,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5395,7 +5392,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5406,7 +5403,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5483,7 +5480,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5571,7 +5568,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5604,7 +5601,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5626,7 +5623,7 @@
         <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5659,7 +5656,7 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5681,7 +5678,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5703,7 +5700,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5725,7 +5722,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5780,7 +5777,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5813,7 +5810,7 @@
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5923,7 +5920,7 @@
         <v>326</v>
       </c>
       <c r="C325" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5934,7 +5931,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5978,7 +5975,7 @@
         <v>331</v>
       </c>
       <c r="C330" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6000,7 +5997,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6099,7 +6096,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6121,7 +6118,7 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6176,7 +6173,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6198,7 +6195,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6297,7 +6294,7 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6308,7 +6305,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6319,7 +6316,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6330,7 +6327,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6418,7 +6415,7 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6484,7 +6481,7 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6495,7 +6492,7 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6539,7 +6536,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6616,7 +6613,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6660,7 +6657,7 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6715,7 +6712,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6759,7 +6756,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7023,7 +7020,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7078,7 +7075,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7100,7 +7097,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7122,7 +7119,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7155,7 +7152,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7177,7 +7174,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7188,7 +7185,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7199,7 +7196,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7221,7 +7218,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7353,7 +7350,7 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7408,7 +7405,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7441,7 +7438,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7485,7 +7482,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7496,7 +7493,7 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7507,7 +7504,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7562,7 +7559,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7573,7 +7570,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7595,7 +7592,7 @@
         <v>478</v>
       </c>
       <c r="C477" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -7617,7 +7614,7 @@
         <v>480</v>
       </c>
       <c r="C479" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -7738,7 +7735,7 @@
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7771,7 +7768,7 @@
         <v>494</v>
       </c>
       <c r="C493" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -7804,7 +7801,7 @@
         <v>497</v>
       </c>
       <c r="C496" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -7892,7 +7889,7 @@
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -7914,7 +7911,7 @@
         <v>507</v>
       </c>
       <c r="C506" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -7936,7 +7933,7 @@
         <v>509</v>
       </c>
       <c r="C508" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -7947,7 +7944,7 @@
         <v>510</v>
       </c>
       <c r="C509" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -7969,7 +7966,7 @@
         <v>512</v>
       </c>
       <c r="C511" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -7991,7 +7988,7 @@
         <v>514</v>
       </c>
       <c r="C513" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -8090,7 +8087,7 @@
         <v>523</v>
       </c>
       <c r="C522" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
